--- a/docs/LTA1_C/LTA1_C_26.07.24_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731792676.608381</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731792678.4395854</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792676.608381.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792678.4395854.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>299.04</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>296.25</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>2.79000000000002</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.9299999999999999</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731792678.476062</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731792678.6465151</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792678.476062.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792678.6465151.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>296.25</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>297.84</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.589999999999975</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731792678.9844198</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731792681.6229458</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792678.9844198.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792681.6229458.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>296.13</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>294.98</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.149999999999977</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731792682.7200477</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731792684.7090755</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792682.7200477.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792684.7090755.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>136.32</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>134.91</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.409999999999997</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.03</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731792684.7220378</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731792684.895249</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792684.7220378.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792684.895249.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>134.91</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>135.33</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.4200000000000159</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731792685.1625502</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731792687.5530753</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792685.1625502.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792687.5530753.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>134.02</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>134.39</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.3699999999999761</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -851,95 +903,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731792687.687333</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731792687.687333.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731792687.687333.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>135.26</v>
       </c>
-      <c r="J9" t="n">
-        <v>135.26</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>134.7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5600000000000023</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731792688.968986</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731792689.6112604</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792688.968986.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792689.6112604.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6936.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6929</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>7.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731792690.931135</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731792691.1759193</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792690.931135.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792691.1759193.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6925.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6944.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>19</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731792691.2406247</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731792691.9193242</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792691.2406247.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792691.9193242.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6918</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6938</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>20</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731792692.0769587</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731792692.7714922</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792692.0769587.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792692.7714922.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6902.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6912.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>10</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1103,95 +1185,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731792693.747995</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731792693.747995.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731792693.747995.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6940</v>
       </c>
-      <c r="J14" t="n">
-        <v>6940</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>6927.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731792695.2155964</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731792697.036945</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792695.2155964.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792697.036945.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>537.1</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>535.75</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.350000000000023</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731792697.099686</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731792697.240833</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792697.099686.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792697.240833.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>534.7</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>534.8</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.09999999999990905</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731792697.3621857</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731792700.5262141</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792697.3621857.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792700.5262141.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>532</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>524.75</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-7.25</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-1.36</v>
       </c>
     </row>
@@ -1303,95 +1409,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731792701.0609503</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731792701.0609503.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731792701.0609503.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>524.7</v>
       </c>
-      <c r="J18" t="n">
-        <v>524.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>524.9</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1999999999999318</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731792701.1646733</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731792701.900557</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792701.1646733.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792701.900557.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1096.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1093</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731792702.6143558</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731792703.212253</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792702.6143558.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792703.212253.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1097.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1086.6</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>10.60000000000014</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731792703.227213</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731792703.5214257</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792703.227213.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792703.5214257.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1086.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1087</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1503,51 +1633,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731792703.6869838</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731792706.416261</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792703.6869838.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792706.416261.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1078.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1074.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-4</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -1555,95 +1691,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731792706.636715</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731792706.636715.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731792706.636715.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1075.6</v>
       </c>
-      <c r="J23" t="n">
-        <v>1075.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1071.8</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.799999999999955</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731792707.5308342</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731792708.44987</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792707.5308342.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792708.44987.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>131.08</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>130.46</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1651,51 +1799,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731792709.3809628</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731792712.3755648</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792709.3809628.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792712.3755648.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>129.3</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>127.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-2.100000000000009</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-1.62</v>
       </c>
     </row>
@@ -1703,95 +1857,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731792712.630319</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731792712.630319.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731792712.630319.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>127.62</v>
       </c>
-      <c r="J26" t="n">
-        <v>127.62</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>127.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3200000000000074</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731792713.302062</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731792714.9665742</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792713.302062.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792714.9665742.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>173.52</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>173.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.07999999999998408</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1799,51 +1965,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731792715.0284717</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731792715.1663823</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792715.0284717.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792715.1663823.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>172.04</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>174.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>2.460000000000008</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>1.43</v>
       </c>
     </row>
@@ -1851,51 +2023,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731792715.3935764</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731792717.455868</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792715.3935764.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792717.455868.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>172.18</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>170.84</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-1.340000000000003</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.7799999999999999</v>
       </c>
     </row>
@@ -1903,95 +2081,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731792717.9803686</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731792717.9803686.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731792717.9803686.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>170.92</v>
       </c>
-      <c r="J30" t="n">
-        <v>170.92</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>170.46</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.4599999999999795</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731792718.666757</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731792720.697567</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792718.666757.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792720.697567.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>53.32</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>53.21</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1999,51 +2189,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731792720.7446241</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731792720.9902906</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792720.7446241.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792720.9902906.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>53.08</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>53.25</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2051,51 +2247,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731792721.047004</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731792724.0437307</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792721.047004.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792724.0437307.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>53.055</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>52.51</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.5450000000000017</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-1.03</v>
       </c>
     </row>
@@ -2103,95 +2305,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731792724.6455789</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731792724.6455789.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731792724.6455789.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>52.615</v>
       </c>
-      <c r="J34" t="n">
-        <v>52.615</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>52.505</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731792724.991592</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731792726.8615408</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792724.991592.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792726.8615408.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1462</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1453.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>8.599999999999909</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -2199,51 +2413,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731792726.9006977</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731792727.0216036</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792726.9006977.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792727.0216036.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1446.6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1448.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2251,51 +2471,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731792727.9607282</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731792729.3497066</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792727.9607282.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792729.3497066.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1434</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1437.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2303,95 +2529,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731792730.0733285</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731792730.0733285.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731792730.0733285.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1442.2</v>
       </c>
-      <c r="J38" t="n">
-        <v>1442.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1440.2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731792730.9480236</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731792731.4203854</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792730.9480236.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792731.4203854.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>63.53</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>63.49</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2399,51 +2637,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731792731.9267478</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731792732.5577106</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792731.9267478.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792732.5577106.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>63.78</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>63.16</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -2451,51 +2695,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731792732.5726957</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731792732.7356193</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792732.5726957.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792732.7356193.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>63.16</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>63.23</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2503,51 +2753,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731792732.8875952</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731792735.4146895</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792732.8875952.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792735.4146895.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>62.71</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>61.57</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-1.140000000000001</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-1.82</v>
       </c>
     </row>
@@ -2555,51 +2811,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731792735.7033398</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731792737.8308158</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792735.7033398.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792737.8308158.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>58.75</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>58.29</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.4600000000000009</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.7799999999999999</v>
       </c>
     </row>
@@ -2607,51 +2869,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731792737.9448953</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731792738.052386</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792737.9448953.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792738.052386.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>57.77</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>58.46</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>1.19</v>
       </c>
     </row>
@@ -2659,51 +2927,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731792738.2759104</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731792740.880992</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792738.2759104.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792740.880992.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>58.02</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>57.3</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.720000000000006</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-1.24</v>
       </c>
     </row>
@@ -2711,51 +2985,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731792741.65961</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731792742.3122752</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792741.65961.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792742.3122752.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>144.88</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>144.1</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.7800000000000011</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -2763,51 +3043,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731792742.8550391</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731792743.4509592</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792742.8550391.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792743.4509592.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>145.22</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>143.52</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>1.699999999999989</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>1.17</v>
       </c>
     </row>
@@ -2815,51 +3101,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731792743.5060139</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731792743.791382</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792743.5060139.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792743.791382.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>142.1</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>143.54</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1.439999999999998</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -2867,51 +3159,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731792744.1049502</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731792745.9354181</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792744.1049502.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792745.9354181.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>141.82</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>141.42</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.4000000000000057</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -2919,51 +3217,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731792747.7519143</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731792748.052966</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792747.7519143.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792748.052966.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>58.54</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>58.34</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1999999999999957</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2971,51 +3275,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731792748.152733</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731792748.2509923</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792748.152733.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792748.2509923.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>58.54</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>58.36</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3023,51 +3333,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731792748.7174864</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731792748.9609122</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792748.7174864.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792748.9609122.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>58.55</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>58.39</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3075,51 +3391,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731792749.1748476</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731792751.5327446</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792749.1748476.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792751.5327446.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>57.54</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>56.59</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.9499999999999957</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-1.65</v>
       </c>
     </row>
@@ -3127,51 +3449,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731792751.8549902</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731792752.1912172</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792751.8549902.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792752.1912172.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>56.53</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>56.14</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -3179,51 +3507,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731792752.5414538</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731792753.7386456</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792752.5414538.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792753.7386456.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>383.83</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>386.26</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>2.430000000000007</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -3231,51 +3565,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731792754.0261562</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731792754.1230495</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792754.0261562.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792754.1230495.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>382.66</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>384.3</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>1.639999999999986</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -3283,51 +3623,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731792754.30286</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731792755.4181807</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792754.30286.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792755.4181807.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>381.93</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>383.34</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>1.409999999999968</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -3335,95 +3681,107 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731792755.7088318</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731792755.7088318.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731792755.7088318.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>385.78</v>
       </c>
-      <c r="J58" t="n">
-        <v>385.78</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>383.6</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2.17999999999995</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731792757.4595904</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731792759.7148898</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792757.4595904.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792759.7148898.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>0.10132</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.10068</v>
       </c>
-      <c r="K59" t="n">
-        <v>0.0006400000000000017</v>
-      </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
+        <v>0.0006399999999999878</v>
+      </c>
+      <c r="N59" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -3431,51 +3789,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731792759.7627392</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731792759.909841</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792759.7627392.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792759.909841.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.1002</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.10104</v>
       </c>
-      <c r="K60" t="n">
-        <v>0.0008399999999999935</v>
-      </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
+        <v>0.0008400000000000074</v>
+      </c>
+      <c r="N60" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -3483,51 +3847,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731792760.0707362</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731792762.8906357</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792760.0707362.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792762.8906357.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>0.10006</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>0.09918</v>
       </c>
-      <c r="K61" t="n">
-        <v>-0.0008800000000000058</v>
-      </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
+        <v>-0.0008799999999999919</v>
+      </c>
+      <c r="N61" t="n">
         <v>-0.88</v>
       </c>
     </row>
@@ -3535,51 +3905,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731792763.0556748</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731792764.014969</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792763.0556748.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792764.014969.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>0.09924000000000001</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.09820000000000001</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.001039999999999999</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -3587,51 +3963,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731792764.2223935</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731792766.1670585</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792764.2223935.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792766.1670585.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>3127.7</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>3110.2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>17.5</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -3639,51 +4021,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731792766.1820173</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731792766.3602967</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792766.1820173.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792766.3602967.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>3110.2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>3117.95</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>7.75</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3691,51 +4079,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731792766.6281157</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731792769.1454163</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792766.6281157.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792769.1454163.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>3097.75</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>3081.8</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-15.94999999999982</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -3743,51 +4137,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731792769.5729651</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731792770.4708228</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792769.5729651.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792770.4708228.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>3085.25</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>3067.5</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>17.75</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -3795,51 +4195,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731792770.6529222</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731792772.5745401</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731792770.6529222.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731792772.5745401.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>37.89</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>37.68</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -3847,51 +4253,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731792773.0131593</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731792776.4768398</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731792773.0131593.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731792776.4768398.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>37.535</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>36.08</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-1.454999999999998</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-3.88</v>
       </c>
     </row>
@@ -3899,51 +4311,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731792777.204405</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731792778.6441104</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792777.204405.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792778.6441104.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>660.6</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>659.5</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3951,51 +4369,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731792778.867781</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731792778.921551</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792778.867781.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792778.921551.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>661.2</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>657.7</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>3.5</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -4003,51 +4427,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731792778.9375086</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731792779.154061</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792778.9375086.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792779.154061.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>657.7</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>658</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.2999999999999545</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4055,51 +4485,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731792779.357941</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731792779.83616</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792779.357941.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792779.83616.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>653.9</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>657</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>3.100000000000023</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -4107,51 +4543,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731792780.036263</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731792781.0834112</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792780.036263.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792781.0834112.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>651.8</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>655.4</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>3.600000000000023</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -4159,51 +4601,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731792781.6110327</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731792782.0512269</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792781.6110327.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/TATN1731792782.0512269.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>657.3</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>653.1</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>4.199999999999932</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -4309,19 +4757,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.60000000000014</v>
+        <v>14.40000000000009</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.120000000000027</v>
+        <v>2.880000000000018</v>
       </c>
       <c r="E4" t="n">
-        <v>0.97</v>
+        <v>1.32</v>
       </c>
       <c r="F4" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
@@ -4331,19 +4779,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.5</v>
+        <v>69</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>11.3</v>
+        <v>13.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -4397,19 +4845,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.800000000000068</v>
+        <v>-6</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.450000000000017</v>
+        <v>-1.5</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.09</v>
+        <v>-1.13</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="9">
@@ -4419,19 +4867,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.04000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2600000000000051</v>
+        <v>0.375</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0.87</v>
       </c>
       <c r="F9" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10">
@@ -4463,19 +4911,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2650000000000006</v>
+        <v>-0.1550000000000011</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.06625000000000014</v>
+        <v>-0.03875000000000028</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5</v>
+        <v>-0.29</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.12</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -4485,19 +4933,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.199999999999989</v>
+        <v>2.759999999999991</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5499999999999972</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="E12" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="13">
@@ -4507,13 +4955,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001639999999999989</v>
+        <v>0.001640000000000003</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0004099999999999972</v>
+        <v>0.0004100000000000006</v>
       </c>
       <c r="E13" t="n">
         <v>1.64</v>
@@ -4529,19 +4977,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>0.96</v>
+        <v>1.1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="15">
@@ -4551,19 +4999,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.479999999999961</v>
+        <v>7.659999999999911</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>1.36999999999999</v>
+        <v>1.914999999999978</v>
       </c>
       <c r="E15" t="n">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -4573,19 +5021,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.480000000000004</v>
+        <v>-1.159999999999997</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4933333333333347</v>
+        <v>-0.3866666666666655</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.15</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.38</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="17">
